--- a/data/all_data.xlsx
+++ b/data/all_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,15 +370,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>tool</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>image_url</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>code_url</t>
         </is>
@@ -393,6 +398,21 @@
           <t>Day 1 (Part to whole)</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_01.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -403,6 +423,21 @@
           <t>Day 2 (Pictogram)</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_02.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -413,6 +448,21 @@
           <t>Day 3 (Historical)</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_03.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -423,6 +473,21 @@
           <t>Day 4 (Flora)</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tableau  and R </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_04.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -433,6 +498,21 @@
           <t>Day 5 (Slope)</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_05.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -443,6 +523,21 @@
           <t>Day 6 (Our World</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_06.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -453,6 +548,21 @@
           <t>Day 7 (Physical)</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_07.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -463,6 +573,21 @@
           <t>Day 8 (Mountains)</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Figma</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_08.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -473,6 +598,21 @@
           <t>Day 9 (Statistics)</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_09.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -483,6 +623,21 @@
           <t>Day 10 (Experimental)</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_10.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -493,6 +648,21 @@
           <t>Day 11 (Circular)</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_11.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -503,6 +673,21 @@
           <t>Day 12 (The Economist)</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_12.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -513,6 +698,21 @@
           <t>Day 13 (Correlation)</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_13.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -523,6 +723,21 @@
           <t>Day 14 (3-Dimensional)</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Python and R</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_14.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -533,6 +748,21 @@
           <t>Day 15 (Multivariate)</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_15.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -543,6 +773,21 @@
           <t>Day 16 (Environment)</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_16.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -553,6 +798,21 @@
           <t>Day 17 (Connections)</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_17.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -563,6 +823,21 @@
           <t>Day 18 (OECD)</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_18.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -573,6 +848,21 @@
           <t>Day 19 (Global Change)</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_19.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -583,6 +873,21 @@
           <t>Day 20 (New Tool)</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Inkscape</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_20.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -593,6 +898,21 @@
           <t>Day 21 (Down and Upwards)</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_21.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -603,6 +923,21 @@
           <t>Day 22 (Animation)</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_22.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -613,6 +948,21 @@
           <t>Day 23 (Tiles)</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_23.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -623,6 +973,21 @@
           <t>Day 24 (Financial Times)</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_24.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -633,6 +998,21 @@
           <t>Day 25 (Trend)</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_25.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -643,6 +1023,21 @@
           <t>Day 26 (Interactive)</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_26.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -653,6 +1048,21 @@
           <t>Day 27 (Future)</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_27.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -663,6 +1073,21 @@
           <t>Day 28 (Deviations)</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>RAWgraphs and Inkscape</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_28.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -673,6 +1098,21 @@
           <t>Day 29 (Storytelling)</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>R and Inkscape</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_29.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -681,6 +1121,21 @@
       <c r="B31" t="inlineStr">
         <is>
           <t>Day 30 (UN Population)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_30.jpg</t>
         </is>
       </c>
     </row>
@@ -693,6 +1148,21 @@
           <t>Day 4 (Historical)</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2023/viz/day_04.png</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -703,6 +1173,21 @@
           <t>Day 28 (Trend)</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2023/viz/day_28.png</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -713,6 +1198,21 @@
           <t>Day 1 (Part to whole)</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2024/viz/day_01.png</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -723,6 +1223,21 @@
           <t>Day 2 (Neo)</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2024/viz/day_02.png</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -733,6 +1248,21 @@
           <t>Day 3 (Makeover)</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2024/viz/day_03.png</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -743,6 +1273,21 @@
           <t>Day 4 (Waffle)</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2024/viz/day_04.png</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -753,6 +1298,21 @@
           <t>Day 5 (Diverging)</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2024/viz/day_05.png</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -763,6 +1323,21 @@
           <t>Day 6 (OECD)</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2024/viz/day_06.png</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -773,6 +1348,21 @@
           <t>Day 7 (Hazards)</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2024/viz/day_07.png</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -783,6 +1373,21 @@
           <t>Day 8 (Circular)</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2024/viz/day_08.png</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -793,6 +1398,21 @@
           <t>Day 9 (Major / Minor)</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2024/viz/day_09.png</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -803,6 +1423,21 @@
           <t>Day 10 (Physical)</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Crochet</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2024/viz/day_10.png</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -813,6 +1448,21 @@
           <t>Day 11 (Mobile-friendly)</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2024/viz/day_11.png</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -823,6 +1473,21 @@
           <t>Day 13 (Family)</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2024/viz/day_13.png</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -833,6 +1498,21 @@
           <t>Day 14 (Heatmap)</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2024/viz/day_14.png</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -843,6 +1523,21 @@
           <t>Day 15 (Historical)</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2024/viz/day_15.png</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -851,6 +1546,21 @@
       <c r="B48" t="inlineStr">
         <is>
           <t>Day 16 (Weather)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2024/viz/day_16.png</t>
         </is>
       </c>
     </row>

--- a/data/all_data.xlsx
+++ b/data/all_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -383,11 +383,6 @@
           <t>image_url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>code_url</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -485,7 +480,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_04.jpg</t>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_04.png</t>
         </is>
       </c>
     </row>
@@ -510,7 +505,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_05.jpg</t>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_05.png</t>
         </is>
       </c>
     </row>
@@ -520,7 +515,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Day 6 (Our World</t>
+          <t>Day 6 (Our World in Data)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -585,7 +580,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_08.jpg</t>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_08.png</t>
         </is>
       </c>
     </row>
@@ -610,7 +605,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_09.jpg</t>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_09.png</t>
         </is>
       </c>
     </row>
@@ -685,7 +680,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_12.jpg</t>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_12.png</t>
         </is>
       </c>
     </row>
@@ -710,7 +705,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_13.jpg</t>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_13.png</t>
         </is>
       </c>
     </row>
@@ -735,7 +730,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_14.jpg</t>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_14.png</t>
         </is>
       </c>
     </row>
@@ -885,7 +880,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_20.jpg</t>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_20.png</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1005,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_25.jpg</t>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_25.png</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1030,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_26.jpg</t>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_26.png</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1055,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_27.jpg</t>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_27.png</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1080,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_28.jpg</t>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_28.png</t>
         </is>
       </c>
     </row>
@@ -1110,7 +1105,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_29.jpg</t>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_29.png</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1130,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_30.jpg</t>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2022/viz/day_30.png</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1430,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2024/viz/day_10.png</t>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2024/viz/day_10.jpg</t>
         </is>
       </c>
     </row>
@@ -1561,6 +1556,31 @@
       <c r="E48" t="inlineStr">
         <is>
           <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2024/viz/day_16.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>2025</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Day 1 (Fractions)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>ObservableJS</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/nrennie/30DayChartChallenge/refs/heads/main/2025/viz/day_01.png</t>
         </is>
       </c>
     </row>
